--- a/uploads/ManoObra/Mano Obra Panulcillo.xlsx
+++ b/uploads/ManoObra/Mano Obra Panulcillo.xlsx
@@ -8,9 +8,9 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://enami-my.sharepoint.com/personal/pjdiaz_enami_cl/Documents/Escritorio/Proyecto37/Proyecto16/Proyecto11/proyecto2/uploads/ManoObra/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="58" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{09D1233C-79AA-4924-AA2F-CD9A51932DAF}"/>
+  <xr:revisionPtr revIDLastSave="60" documentId="11_AD4D2F04E46CFB4ACB3E20C07D90DEBA683EDF21" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{2258B14B-D9A3-41C3-95E7-2AE4BC80DE05}"/>
   <bookViews>
-    <workbookView xWindow="29190" yWindow="615" windowWidth="14085" windowHeight="9795" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-110" yWindow="-110" windowWidth="19420" windowHeight="10300" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Hoja1" sheetId="1" r:id="rId1"/>
@@ -420,7 +420,7 @@
   <dimension ref="A1:G15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C3" sqref="C2:C15"/>
+      <selection activeCell="D9" sqref="D9"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultColWidth="8.7265625" defaultRowHeight="14.5" x14ac:dyDescent="0.35"/>
@@ -464,10 +464,10 @@
         <v>13381</v>
       </c>
       <c r="C2">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D2" s="4">
-        <v>98.857702241529097</v>
+        <v>9.8857702241529104</v>
       </c>
       <c r="E2">
         <v>0</v>
@@ -487,7 +487,7 @@
         <v>5290</v>
       </c>
       <c r="C3">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D3" s="4">
         <v>17.6825382150571</v>
@@ -510,7 +510,7 @@
         <v>4810</v>
       </c>
       <c r="C4">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D4" s="4">
         <v>14.1566239781429</v>
@@ -533,7 +533,7 @@
         <v>3960</v>
       </c>
       <c r="C5">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D5" s="4">
         <v>12.9791272913252</v>
@@ -556,7 +556,7 @@
         <v>290</v>
       </c>
       <c r="C6">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D6" s="4">
         <v>15.968429824213301</v>
@@ -579,7 +579,7 @@
         <v>787</v>
       </c>
       <c r="C7">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D7" s="4">
         <v>14.1637951580852</v>
@@ -602,7 +602,7 @@
         <v>1645</v>
       </c>
       <c r="C8">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D8" s="4">
         <v>14.156110681669499</v>
@@ -625,7 +625,7 @@
         <v>67</v>
       </c>
       <c r="C9">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D9" s="4">
         <v>14.2468268553664</v>
@@ -648,7 +648,7 @@
         <v>1261</v>
       </c>
       <c r="C10">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D10" s="4">
         <v>12.9743203423224</v>
@@ -671,7 +671,7 @@
         <v>1055</v>
       </c>
       <c r="C11">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D11" s="4">
         <v>15.957558669059001</v>
@@ -694,7 +694,7 @@
         <v>146</v>
       </c>
       <c r="C12">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D12" s="4">
         <v>17.7078755300534</v>
@@ -717,7 +717,7 @@
         <v>143</v>
       </c>
       <c r="C13">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D13" s="4">
         <v>12.9862554016754</v>
@@ -740,7 +740,7 @@
         <v>56</v>
       </c>
       <c r="C14">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D14" s="4">
         <v>13.006144172283401</v>
@@ -763,7 +763,7 @@
         <v>916</v>
       </c>
       <c r="C15">
-        <v>0</v>
+        <v>1</v>
       </c>
       <c r="D15" s="4">
         <v>11.059066286099</v>
